--- a/summarized.xlsx
+++ b/summarized.xlsx
@@ -539,7 +539,7 @@
         <v>1.300000000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1417112597794403</v>
+        <v>14.17112597794403</v>
       </c>
       <c r="M2" t="n">
         <v>35</v>
@@ -584,7 +584,7 @@
         <v>0.5</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1419758714348964</v>
+        <v>14.19758714348964</v>
       </c>
       <c r="M3" t="n">
         <v>23</v>
@@ -629,7 +629,7 @@
         <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>0.469427213538204</v>
+        <v>46.9427213538204</v>
       </c>
       <c r="M4" t="n">
         <v>43</v>
@@ -674,7 +674,7 @@
         <v>1.5</v>
       </c>
       <c r="L5" t="n">
-        <v>0.63667470108524</v>
+        <v>63.66747010852401</v>
       </c>
       <c r="M5" t="n">
         <v>22</v>
@@ -695,8 +695,14 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
